--- a/Bunnplate/Bestilling av deler/Bestillingsliste.xlsx
+++ b/Bunnplate/Bestilling av deler/Bestillingsliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uiano-my.sharepoint.com/personal/idald_uia_no/Documents/Dokumenter/MAS309/Bunnplate/Bestilling av deler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6357F16-2EF6-43A9-B73C-E519A09BF771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{A6357F16-2EF6-43A9-B73C-E519A09BF771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AD6BDB5-8BBE-426C-8890-7D5FA4B3F7C6}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{F610FC6E-88F9-464A-8112-FA8F8AF6FE6A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Bestillingsliste</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>1 stk</t>
+  </si>
+  <si>
+    <t>M12 8.8</t>
+  </si>
+  <si>
+    <t>9 stk</t>
   </si>
 </sst>
 </file>
@@ -136,7 +142,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -144,102 +150,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFB93D0-83C1-4E5D-9B5F-B11A467610A6}">
-  <dimension ref="B3:F8"/>
+  <dimension ref="B3:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -588,7 +507,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" ht="26.65" x14ac:dyDescent="0.85">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
@@ -596,56 +515,56 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>312552</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -657,7 +576,20 @@
       <c r="E8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
